--- a/docs/all/idx1_servicio_loadings_y_tops.xlsx
+++ b/docs/all/idx1_servicio_loadings_y_tops.xlsx
@@ -399,10 +399,10 @@
         </is>
       </c>
       <c r="C2">
-        <v>0.7109590908335826</v>
+        <v>0.710959090833583</v>
       </c>
       <c r="D2">
-        <v>0.4431740632553642</v>
+        <v>0.4431740632553643</v>
       </c>
       <c r="E2">
         <v>44.3</v>
@@ -420,10 +420,10 @@
         </is>
       </c>
       <c r="C3">
-        <v>0.6652270547139657</v>
+        <v>0.6652270547139656</v>
       </c>
       <c r="D3">
-        <v>0.4146671455868541</v>
+        <v>0.414667145586854</v>
       </c>
       <c r="E3">
         <v>41.5</v>
@@ -441,7 +441,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>0.2280573104236471</v>
+        <v>0.2280573104236472</v>
       </c>
       <c r="D4">
         <v>0.1421587911577817</v>
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="C5">
-        <v>0.02687625131415387</v>
+        <v>0.02687625131415377</v>
       </c>
       <c r="D5">
-        <v>0.020467901214393</v>
+        <v>0.02046790121439292</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="C6">
-        <v>-0.3497642938237708</v>
+        <v>-0.3497642938237709</v>
       </c>
       <c r="D6">
-        <v>0.2663667983539336</v>
+        <v>0.2663667983539337</v>
       </c>
       <c r="E6">
         <v>26.6</v>
@@ -525,10 +525,10 @@
         </is>
       </c>
       <c r="C8">
-        <v>0.7027196014602012</v>
+        <v>0.7027196014602011</v>
       </c>
       <c r="D8">
-        <v>0.4314031235857315</v>
+        <v>0.4314031235857313</v>
       </c>
       <c r="E8">
         <v>43.1</v>
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="C9">
-        <v>-0.6596498347172848</v>
+        <v>-0.659649834717285</v>
       </c>
       <c r="D9">
-        <v>0.4049623755741573</v>
+        <v>0.4049623755741574</v>
       </c>
       <c r="E9">
         <v>40.5</v>
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.6120261908401192</v>
+        <v>0.6120261908401194</v>
       </c>
     </row>
     <row r="3">
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.3399167061053555</v>
+        <v>0.3399167061053554</v>
       </c>
     </row>
     <row r="4">
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.7109590908335826</v>
+        <v>0.710959090833583</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -683,7 +683,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.6652270547139657</v>
+        <v>0.6652270547139656</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.2280573104236471</v>
+        <v>0.2280573104236472</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -758,7 +758,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>-0.3497642938237708</v>
+        <v>-0.3497642938237709</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.02687625131415387</v>
+        <v>0.02687625131415377</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
